--- a/Bases/ENVIPE por región.xlsx
+++ b/Bases/ENVIPE por región.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CONAPO_Respaldo\ENVIPE.-Encuesta Nacional de Victimización y Percepción sobre Seguridad Pública\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dvill\OneDrive\Escritorio\MC_ENVIPE\Bases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE857585-6F53-46E9-B765-211D075BB476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA5C2E5-1CFE-4ED4-93A8-93E39C4475CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34452" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Región" sheetId="1" r:id="rId1"/>
     <sheet name="Integrantes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="32">
   <si>
     <t>Centro</t>
   </si>
@@ -160,6 +159,9 @@
   </si>
   <si>
     <t>2023 (ENVIPE 2024)</t>
+  </si>
+  <si>
+    <t>Cuadro. República Mexicana. Número de personas que declararon haber cambiado de vivienda o lugar de residencia para protegerse de la delincuencia, por región, 2009-20231/</t>
   </si>
 </sst>
 </file>
@@ -318,6 +320,12 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="justify" wrapText="1"/>
     </xf>
@@ -329,12 +337,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1183,8 +1185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9:N13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1213,39 +1215,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
     </row>
     <row r="2" spans="1:29" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="5"/>
+      <c r="A2" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -1298,51 +1302,51 @@
       <c r="T3" s="4"/>
     </row>
     <row r="4" spans="1:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="25" t="s">
+      <c r="N4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
       <c r="Q4" s="4"/>
-      <c r="R4" s="25" t="s">
+      <c r="R4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="V4" s="25" t="s">
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="V4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Z4" s="25" t="s">
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Z4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A5" s="26"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1973,47 +1977,47 @@
       <c r="T15" s="10"/>
     </row>
     <row r="16" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="F16" s="25" t="s">
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="F16" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="J16" s="25" t="s">
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="J16" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="N16" s="25" t="s">
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="N16" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="R16" s="25" t="s">
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="R16" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="V16" s="25" t="s">
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="V16" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="W16" s="25"/>
-      <c r="X16" s="25"/>
-      <c r="Z16" s="25" t="s">
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Z16" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="AA16" s="25"/>
-      <c r="AB16" s="25"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A17" s="26"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
@@ -2596,35 +2600,35 @@
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
-      <c r="T27" s="25"/>
-      <c r="V27" s="25"/>
-      <c r="W27" s="25"/>
-      <c r="X27" s="25"/>
-      <c r="Z27" s="25"/>
-      <c r="AA27" s="25"/>
-      <c r="AB27" s="25"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="21"/>
+      <c r="X27" s="21"/>
+      <c r="Z27" s="21"/>
+      <c r="AA27" s="21"/>
+      <c r="AB27" s="21"/>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A28" s="26"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="2" t="s">
         <v>5</v>
       </c>
@@ -2953,67 +2957,67 @@
       <c r="A39" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="24"/>
-      <c r="Q39" s="24"/>
-      <c r="R39" s="24"/>
-      <c r="S39" s="24"/>
-      <c r="T39" s="24"/>
-      <c r="U39" s="24"/>
-      <c r="V39" s="24"/>
-      <c r="W39" s="24"/>
-      <c r="X39" s="24"/>
-      <c r="Y39" s="24"/>
-      <c r="Z39" s="24"/>
-      <c r="AA39" s="24"/>
-      <c r="AB39" s="24"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="26"/>
+      <c r="S39" s="26"/>
+      <c r="T39" s="26"/>
+      <c r="U39" s="26"/>
+      <c r="V39" s="26"/>
+      <c r="W39" s="26"/>
+      <c r="X39" s="26"/>
+      <c r="Y39" s="26"/>
+      <c r="Z39" s="26"/>
+      <c r="AA39" s="26"/>
+      <c r="AB39" s="26"/>
     </row>
     <row r="40" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="17"/>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="21"/>
-      <c r="R40" s="21"/>
-      <c r="S40" s="21"/>
-      <c r="T40" s="21"/>
-      <c r="U40" s="21"/>
-      <c r="V40" s="21"/>
-      <c r="W40" s="21"/>
-      <c r="X40" s="21"/>
-      <c r="Y40" s="21"/>
-      <c r="Z40" s="21"/>
-      <c r="AA40" s="21"/>
-      <c r="AB40" s="21"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="23"/>
+      <c r="Q40" s="23"/>
+      <c r="R40" s="23"/>
+      <c r="S40" s="23"/>
+      <c r="T40" s="23"/>
+      <c r="U40" s="23"/>
+      <c r="V40" s="23"/>
+      <c r="W40" s="23"/>
+      <c r="X40" s="23"/>
+      <c r="Y40" s="23"/>
+      <c r="Z40" s="23"/>
+      <c r="AA40" s="23"/>
+      <c r="AB40" s="23"/>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A41" s="9" t="s">
@@ -3038,17 +3042,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="Z27:AB27"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="J27:L27"/>
     <mergeCell ref="B40:AB40"/>
     <mergeCell ref="A1:AB1"/>
     <mergeCell ref="B39:AB39"/>
@@ -3065,6 +3058,17 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="Z27:AB27"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="N27:P27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3075,8 +3079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
